--- a/OR2/Phase2/Phase2.xlsx
+++ b/OR2/Phase2/Phase2.xlsx
@@ -2,17 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8136"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Days" sheetId="6" r:id="rId1"/>
-    <sheet name="number of credits" sheetId="7" r:id="rId2"/>
-    <sheet name="cost of build" sheetId="9" r:id="rId3"/>
-    <sheet name="interest rate" sheetId="8" r:id="rId4"/>
+    <sheet name="numberofcredits" sheetId="7" r:id="rId2"/>
+    <sheet name="costofbuild" sheetId="9" r:id="rId3"/>
+    <sheet name="interestrate" sheetId="8" r:id="rId4"/>
+    <sheet name="z" sheetId="10" r:id="rId5"/>
+    <sheet name="y" sheetId="11" r:id="rId6"/>
+    <sheet name="w" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
-  <si>
-    <t>region 1</t>
-  </si>
-  <si>
-    <t>region 2</t>
-  </si>
-  <si>
-    <t>region 3</t>
-  </si>
-  <si>
-    <t>region 4</t>
-  </si>
-  <si>
-    <t>region 5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>NY</t>
   </si>
@@ -72,9 +60,6 @@
     <t>LA</t>
   </si>
   <si>
-    <t>number of credits</t>
-  </si>
-  <si>
     <t>interest rate</t>
   </si>
   <si>
@@ -85,12 +70,30 @@
   </si>
   <si>
     <t>large</t>
+  </si>
+  <si>
+    <t>region1</t>
+  </si>
+  <si>
+    <t>region2</t>
+  </si>
+  <si>
+    <t>region3</t>
+  </si>
+  <si>
+    <t>region4</t>
+  </si>
+  <si>
+    <t>region5</t>
+  </si>
+  <si>
+    <t>numberofcredits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,29 +441,31 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -467,9 +473,9 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>6</v>
@@ -492,9 +498,9 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>6</v>
@@ -517,9 +523,9 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
@@ -542,9 +548,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>8</v>
@@ -567,9 +573,9 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>7</v>
@@ -592,9 +598,9 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
@@ -617,9 +623,9 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
@@ -642,9 +648,9 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
@@ -667,9 +673,9 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -692,9 +698,9 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>6</v>
@@ -717,9 +723,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>9</v>
@@ -751,103 +757,103 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>70</v>
@@ -866,29 +872,29 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>35</v>
@@ -900,9 +906,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>30</v>
@@ -914,9 +920,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>40</v>
@@ -928,9 +934,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>10</v>
@@ -942,9 +948,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4">
         <v>20</v>
@@ -969,38 +975,38 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>0.2</v>
@@ -1018,12 +1024,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1032,4 +1038,193 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>